--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,309 +46,300 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>looked</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>money</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>away</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>something</t>
+    <t>ordered</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -358,15 +349,18 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>classic</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -388,12 +379,12 @@
     <t>great</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -403,46 +394,49 @@
     <t>friends</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>enjoys</t>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>family</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>games</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
+    <t>easy</t>
   </si>
   <si>
     <t>playing</t>
@@ -451,16 +445,10 @@
     <t>cute</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>year</t>
+    <t>son</t>
   </si>
   <si>
     <t>good</t>
@@ -824,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +820,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -893,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -911,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -935,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -943,13 +931,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -961,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -985,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -993,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8028169014084507</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1011,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1035,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1043,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7524271844660194</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1061,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1085,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1114,16 +1102,16 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K7">
-        <v>0.6774193548387096</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1135,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1143,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1161,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1185,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1193,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7428571428571429</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1211,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1235,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1243,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6891891891891891</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1261,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.609375</v>
+        <v>0.59375</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1285,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1293,13 +1281,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1311,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.5507246376811594</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1335,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1343,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1361,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.4585726004922067</v>
+        <v>0.4663934426229508</v>
       </c>
       <c r="L12">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="M12">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1382,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1393,13 +1381,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1411,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.3994252873563218</v>
+        <v>0.4273858921161826</v>
       </c>
       <c r="L13">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="M13">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1432,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>418</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1443,13 +1431,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1461,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.3796680497925311</v>
+        <v>0.3979885057471265</v>
       </c>
       <c r="L14">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="M14">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1482,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>299</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1493,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5903614457831325</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1511,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K15">
-        <v>0.3773584905660378</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1535,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1543,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1561,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>0.325</v>
@@ -1593,13 +1581,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5517241379310345</v>
+        <v>0.5623188405797102</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1611,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.3227513227513227</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1635,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1643,13 +1631,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5449275362318841</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="C18">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1661,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.2874617737003058</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L18">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>233</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1693,13 +1681,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5368421052631579</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1711,31 +1699,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>0.2727272727272727</v>
+        <v>0.2874617737003058</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1743,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5272727272727272</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -1761,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K20">
-        <v>0.2459016393442623</v>
+        <v>0.25</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1785,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1793,13 +1781,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5142857142857142</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1811,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.2088353413654618</v>
+        <v>0.2265625</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1835,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>197</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1843,13 +1831,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1861,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.1875</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L22">
         <v>24</v>
@@ -1885,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1893,13 +1881,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4803149606299212</v>
+        <v>0.4921875</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1911,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>0.1794871794871795</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1935,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1943,13 +1931,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4375</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1961,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>0.1748251748251748</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1985,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1993,13 +1981,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4296875</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2011,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K25">
-        <v>0.1746031746031746</v>
+        <v>0.176706827309237</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2035,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>104</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2043,13 +2031,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4285714285714285</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2061,31 +2049,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.1612903225806452</v>
+        <v>0.1605263157894737</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>156</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2093,49 +2081,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4210526315789473</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>48</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27">
+        <v>0.1367521367521368</v>
+      </c>
+      <c r="L27">
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>22</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27">
-        <v>0.1562774363476734</v>
-      </c>
-      <c r="L27">
-        <v>178</v>
-      </c>
-      <c r="M27">
-        <v>180</v>
-      </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>961</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2143,13 +2131,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4126984126984127</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2161,31 +2149,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.1233766233766234</v>
+        <v>0.1284916201117318</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>135</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2193,13 +2181,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.405940594059406</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C29">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2211,31 +2199,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K29">
-        <v>0.1069182389937107</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2243,13 +2231,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4047619047619048</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2261,31 +2249,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.1002785515320334</v>
+        <v>0.100587851077727</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>323</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2293,13 +2281,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4028436018957346</v>
+        <v>0.3886255924170616</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2311,31 +2299,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.09517601043024772</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L31">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1388</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2343,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2361,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K32">
-        <v>0.08024691358024691</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2385,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2393,13 +2381,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3931623931623932</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2411,31 +2399,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K33">
-        <v>0.07843137254901961</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2443,13 +2431,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3818181818181818</v>
+        <v>0.34375</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2461,31 +2449,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K34">
-        <v>0.07774798927613941</v>
+        <v>0.06640625</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2493,13 +2481,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2511,31 +2499,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K35">
-        <v>0.04659498207885305</v>
+        <v>0.0563758389261745</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N35">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="O35">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>532</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2543,13 +2531,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2561,31 +2549,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="K36">
-        <v>0.0444743935309973</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="O36">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>709</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2593,13 +2581,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3469387755102041</v>
+        <v>0.3247422680412371</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2611,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K37">
-        <v>0.04233870967741935</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="O37">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>475</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2643,13 +2631,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.3196202531645569</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2661,31 +2649,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="K38">
-        <v>0.04210526315789474</v>
+        <v>0.03443328550932568</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M38">
         <v>32</v>
       </c>
       <c r="N38">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>364</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2693,13 +2681,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2711,31 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39">
-        <v>0.03304597701149425</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>32</v>
-      </c>
-      <c r="N39">
-        <v>0.72</v>
-      </c>
-      <c r="O39">
-        <v>0.28</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>673</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2743,13 +2707,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3188405797101449</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2761,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2769,7 +2733,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3134328358208955</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C41">
         <v>21</v>
@@ -2787,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2795,13 +2759,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3061224489795918</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2813,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2847,13 +2811,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2972972972972973</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2865,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2873,25 +2837,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2912332838038633</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C45">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>477</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2899,13 +2863,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.288659793814433</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2917,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2925,13 +2889,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.287037037037037</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2943,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2951,25 +2915,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2816455696202532</v>
+        <v>0.2836363636363636</v>
       </c>
       <c r="C48">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>227</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2977,13 +2941,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2786885245901639</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2995,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3003,13 +2967,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2757009345794392</v>
+        <v>0.275</v>
       </c>
       <c r="C50">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3021,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3055,13 +3019,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2721518987341772</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C52">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3073,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>230</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3081,13 +3045,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2714285714285714</v>
+        <v>0.2685714285714286</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3099,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3107,13 +3071,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2681159420289855</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3125,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3133,13 +3097,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2567567567567567</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3151,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3159,13 +3123,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2564102564102564</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3177,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3185,13 +3149,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2432432432432433</v>
+        <v>0.258160237388724</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3203,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>56</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3211,13 +3175,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.24</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3229,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3237,13 +3201,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.235</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3255,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3263,13 +3227,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2307692307692308</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3281,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3289,13 +3253,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2285714285714286</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3307,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3315,25 +3279,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2273730684326711</v>
+        <v>0.234375</v>
       </c>
       <c r="C62">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>350</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3341,25 +3305,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2222222222222222</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3367,25 +3331,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2173913043478261</v>
+        <v>0.2229580573951435</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>54</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3393,25 +3357,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2161383285302594</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C65">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>272</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3419,13 +3383,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2105263157894737</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3437,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3445,25 +3409,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1968503937007874</v>
+        <v>0.2196531791907514</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>102</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3471,13 +3435,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1967213114754098</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C68">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3489,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3497,25 +3461,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1813186813186813</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C69">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>298</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3523,13 +3487,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1752577319587629</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3541,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3549,25 +3513,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1727748691099476</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>158</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3575,25 +3539,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1683168316831683</v>
+        <v>0.1924882629107981</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>84</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3601,25 +3565,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1666666666666667</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C73">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>160</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3627,13 +3591,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1649484536082474</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3645,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3653,22 +3617,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1648936170212766</v>
+        <v>0.1822916666666667</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>157</v>
@@ -3679,13 +3643,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1623376623376623</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3697,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3705,25 +3669,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1610486891385768</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="C77">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D77">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3731,25 +3695,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1578947368421053</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="C78">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3757,13 +3721,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1559633027522936</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3775,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3783,25 +3747,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1528662420382166</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>133</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3809,13 +3773,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1470588235294118</v>
+        <v>0.1492957746478873</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3827,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>87</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3835,25 +3799,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1470588235294118</v>
+        <v>0.1433691756272401</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>145</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3861,13 +3825,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1384615384615385</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3879,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3887,13 +3851,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1380281690140845</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C84">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3905,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>306</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3913,25 +3877,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1285046728971962</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D85">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>373</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3939,25 +3903,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1268656716417911</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F86">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3965,25 +3929,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1265822784810127</v>
+        <v>0.1260162601626016</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3991,25 +3955,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1237113402061856</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F88">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4017,7 +3981,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1206896551724138</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="C89">
         <v>21</v>
@@ -4035,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4043,25 +4007,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1188118811881188</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C90">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D90">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>534</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4069,13 +4033,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1180124223602484</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4087,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4095,25 +4059,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1146953405017921</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="C92">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D92">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E92">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F92">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>247</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4121,25 +4085,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1053811659192825</v>
+        <v>0.1077943615257048</v>
       </c>
       <c r="C93">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D93">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>399</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4147,25 +4111,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1020408163265306</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E94">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F94">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>132</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4173,25 +4137,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1012658227848101</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>142</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4199,25 +4163,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.09104938271604938</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="C96">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D96">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E96">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F96">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>589</v>
+        <v>720</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4225,25 +4189,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.08882521489971347</v>
+        <v>0.08177570093457943</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D97">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E97">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F97">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>318</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4251,25 +4215,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.08755760368663594</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C98">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F98">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>198</v>
+        <v>597</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4277,25 +4241,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.08695652173913043</v>
+        <v>0.07226107226107226</v>
       </c>
       <c r="C99">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D99">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E99">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>714</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4303,25 +4267,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.07758620689655173</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D100">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F100">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>214</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4329,13 +4293,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.074</v>
+        <v>0.05588822355289421</v>
       </c>
       <c r="C101">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D101">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E101">
         <v>0.1</v>
@@ -4347,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4355,25 +4319,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.07242990654205607</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C102">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="F102">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4381,25 +4345,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.05338078291814947</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="C103">
         <v>15</v>
       </c>
       <c r="D103">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E103">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="F103">
-        <v>0.6799999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>266</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4407,103 +4371,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.05215419501133787</v>
+        <v>0.02627737226277372</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="F104">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="C105">
-        <v>24</v>
-      </c>
-      <c r="D105">
-        <v>31</v>
-      </c>
-      <c r="E105">
-        <v>0.23</v>
-      </c>
-      <c r="F105">
-        <v>0.77</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106">
-        <v>0.04210526315789474</v>
-      </c>
-      <c r="C106">
-        <v>16</v>
-      </c>
-      <c r="D106">
-        <v>32</v>
-      </c>
-      <c r="E106">
-        <v>0.5</v>
-      </c>
-      <c r="F106">
-        <v>0.5</v>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="C107">
-        <v>18</v>
-      </c>
-      <c r="D107">
-        <v>32</v>
-      </c>
-      <c r="E107">
-        <v>0.44</v>
-      </c>
-      <c r="F107">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
